--- a/2_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/2_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHIM BHUTTO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAHIM BHUTTO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11245F8B-F270-4443-BABA-72DA10E17E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E8C139-AF4A-4F6F-BA12-16B9527F830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,8 +883,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1083,19 +1083,19 @@
         <v>3</v>
       </c>
       <c r="F12" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="17">
         <f>SUM(D12:H12)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J12" s="23">
-        <f>(I12/$I$12)*100</f>
-        <v>100</v>
+        <f>(I9/$I$12)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,17 +1123,19 @@
       <c r="D14" s="15">
         <v>3</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15">
+        <v>3</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="8">
         <f t="shared" ref="I14:I23" si="0">SUM(D14:H14)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" s="19">
         <f t="shared" ref="J14:J23" si="1">(I14/$I$12)*100</f>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,17 +1149,19 @@
       <c r="D15" s="15">
         <v>3</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15">
+        <v>3</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1171,7 +1175,9 @@
       <c r="D16" s="15">
         <v>3</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -1181,7 +1187,7 @@
       </c>
       <c r="J16" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,17 +1201,19 @@
       <c r="D17" s="15">
         <v>3</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="15">
+        <v>3</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1219,17 +1227,19 @@
       <c r="D18" s="15">
         <v>3</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="15">
+        <v>3</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1243,17 +1253,19 @@
       <c r="D19" s="15">
         <v>3</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="15">
+        <v>3</v>
+      </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,17 +1279,19 @@
       <c r="D20" s="15">
         <v>3</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15">
+        <v>3</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J20" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,7 +1305,9 @@
       <c r="D21" s="15">
         <v>3</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -1301,7 +1317,7 @@
       </c>
       <c r="J21" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,17 +1331,19 @@
       <c r="D22" s="15">
         <v>3</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15">
+        <v>3</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J22" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1339,7 +1357,9 @@
       <c r="D23" s="15">
         <v>3</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -1349,7 +1369,7 @@
       </c>
       <c r="J23" s="19">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
